--- a/invoice_gen/TEMPLATE/MAN.xlsx
+++ b/invoice_gen/TEMPLATE/MAN.xlsx
@@ -11,9 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packing list" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Contract'!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Invoice'!$A$1:$G$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Packing list'!$A$1:$I$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Contract'!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Invoice'!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Packing list'!$A$1:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="0"/>
 </workbook>
@@ -21,25 +21,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0.00;[$USD]\ \-#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-409]dd/mmm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="59">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -72,12 +65,6 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="24"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -95,6 +82,12 @@
       <sz val="14"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <charset val="134"/>
       <b val="1"/>
@@ -102,6 +95,12 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
       <name val="Book Antiqua"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
@@ -146,6 +145,12 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
@@ -154,12 +159,6 @@
       <charset val="134"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="14"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -184,21 +183,39 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <sz val="30"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <sz val="30"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="24"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <sz val="20"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -218,6 +235,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
       <color theme="1"/>
@@ -227,54 +250,6 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="134"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="30"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <sz val="30"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="24"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-      <sz val="20"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="15"/>
@@ -286,16 +261,9 @@
       <sz val="15"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <sz val="17"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <sz val="15"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -453,18 +421,12 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -653,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -735,6 +697,43 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -742,6 +741,71 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -864,7 +928,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -876,205 +940,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="5" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="14" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="62" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="19" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="20" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="19" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="21" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="22" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1083,19 +1138,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1106,6 +1158,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,10 +1170,34 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,15 +1206,6 @@
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -1147,44 +1217,43 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,111 +1263,87 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -1307,118 +1352,112 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="38" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,7 +1468,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1545,6 +1584,180 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>7</col>
+      <colOff>868754</colOff>
+      <row>2</row>
+      <rowOff>437030</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>340584</colOff>
+      <row>6</row>
+      <rowOff>352576</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="图片 1" descr="微信图片_20230906130651"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="14646910" y="1427480"/>
+          <a:ext cx="3294380" cy="1896745"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>8</col>
+      <colOff>143062</colOff>
+      <row>3</row>
+      <rowOff>22412</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>309507</colOff>
+      <row>5</row>
+      <rowOff>218289</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="图片 2" descr="微信图片_20230906130654"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="15832455" y="1508125"/>
+          <a:ext cx="2077720" cy="1186180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>10</col>
+      <colOff>247650</colOff>
+      <row>22</row>
+      <rowOff>628650</rowOff>
+    </from>
+    <to>
+      <col>15</col>
+      <colOff>14605</colOff>
+      <row>25</row>
+      <rowOff>188595</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="图片 2" descr="微信图片_20230906130654"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12795250" y="7968615"/>
+          <a:ext cx="2135505" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>8</col>
+      <colOff>123825</colOff>
+      <row>22</row>
+      <rowOff>295275</rowOff>
+    </from>
+    <to>
+      <col>15</col>
+      <colOff>225425</colOff>
+      <row>26</row>
+      <rowOff>201295</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="图片 1" descr="微信图片_20230906130651"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11724005" y="7820025"/>
+          <a:ext cx="3417570" cy="1681480"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1808,543 +2021,489 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD200"/>
+  <dimension ref="A1:XEW200"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="28.6666666666667" defaultRowHeight="15"/>
   <cols>
-    <col width="27.6666666666667" customWidth="1" style="99" min="1" max="7"/>
-    <col width="28.6666666666667" customWidth="1" style="99" min="8" max="16384"/>
+    <col width="25.4380952380952" customWidth="1" style="88" min="1" max="1"/>
+    <col width="27.6666666666667" customWidth="1" style="88" min="2" max="2"/>
+    <col width="37.1047619047619" customWidth="1" style="88" min="3" max="3"/>
+    <col width="27.6666666666667" customWidth="1" style="88" min="4" max="6"/>
+    <col width="33.4380952380952" customWidth="1" style="88" min="7" max="7"/>
+    <col width="28.6666666666667" customWidth="1" style="88" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.2" customFormat="1" customHeight="1" s="132">
-      <c r="A1" s="100" t="inlineStr">
+    <row r="1" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A1" s="89" t="inlineStr">
         <is>
           <t>SALES CONTRACT</t>
         </is>
       </c>
-      <c r="H1" s="99" t="n"/>
-      <c r="I1" s="99" t="n"/>
-      <c r="J1" s="99" t="n"/>
-      <c r="K1" s="99" t="n"/>
-      <c r="L1" s="99" t="n"/>
-      <c r="M1" s="99" t="n"/>
-      <c r="XFD1" s="99" t="n"/>
-    </row>
-    <row r="2" ht="30" customFormat="1" customHeight="1" s="87">
-      <c r="A2" s="101" t="n"/>
-      <c r="B2" s="101" t="n"/>
-      <c r="C2" s="101" t="n"/>
-      <c r="D2" s="101" t="n"/>
-      <c r="E2" s="101" t="n"/>
-      <c r="F2" s="101" t="n"/>
-      <c r="G2" s="101" t="n"/>
-    </row>
-    <row r="3" ht="27" customFormat="1" customHeight="1" s="88">
-      <c r="C3" s="102" t="n"/>
-      <c r="D3" s="102" t="n"/>
-      <c r="E3" s="102" t="n"/>
-      <c r="F3" s="103" t="inlineStr">
+      <c r="XEW1" s="88" t="n"/>
+    </row>
+    <row r="2" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A2" s="90" t="n"/>
+      <c r="B2" s="90" t="n"/>
+      <c r="C2" s="90" t="n"/>
+      <c r="D2" s="90" t="n"/>
+      <c r="E2" s="90" t="n"/>
+      <c r="F2" s="90" t="n"/>
+      <c r="G2" s="90" t="n"/>
+      <c r="XEW2" s="88" t="n"/>
+    </row>
+    <row r="3" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A3" s="91" t="n"/>
+      <c r="B3" s="91" t="n"/>
+      <c r="C3" s="92" t="n"/>
+      <c r="D3" s="92" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93" t="inlineStr">
         <is>
           <t>DATE:</t>
         </is>
       </c>
-      <c r="G3" s="133">
-        <f>Invoice!G9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="39" customFormat="1" customHeight="1" s="88">
-      <c r="A4" s="102" t="n"/>
-      <c r="B4" s="102" t="n"/>
-      <c r="C4" s="102" t="n"/>
-      <c r="D4" s="102" t="n"/>
-      <c r="E4" s="103" t="inlineStr">
+      <c r="G3" s="125" t="inlineStr">
+        <is>
+          <t>JFTIME</t>
+        </is>
+      </c>
+      <c r="XEW3" s="88" t="n"/>
+    </row>
+    <row r="4" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A4" s="92" t="n"/>
+      <c r="B4" s="92" t="n"/>
+      <c r="C4" s="92" t="n"/>
+      <c r="D4" s="92" t="n"/>
+      <c r="E4" s="93" t="inlineStr">
         <is>
           <t>CONTRACT NO.:</t>
         </is>
       </c>
-      <c r="G4" s="105">
-        <f>Invoice!G8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="31.95" customFormat="1" customHeight="1" s="89">
-      <c r="A5" s="24" t="inlineStr">
+      <c r="G4" s="95" t="inlineStr">
+        <is>
+          <t>JFINV</t>
+        </is>
+      </c>
+      <c r="XEW4" s="88" t="n"/>
+    </row>
+    <row r="5" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A5" s="96" t="inlineStr">
         <is>
           <t>The Seller:</t>
         </is>
       </c>
-      <c r="B5" s="89" t="inlineStr">
+      <c r="B5" s="97" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="31.95" customFormat="1" customHeight="1" s="89">
-      <c r="B6" s="89" t="inlineStr">
+      <c r="C5" s="97" t="n"/>
+      <c r="D5" s="97" t="n"/>
+      <c r="E5" s="97" t="n"/>
+      <c r="F5" s="97" t="n"/>
+      <c r="G5" s="97" t="n"/>
+      <c r="XEW5" s="88" t="n"/>
+    </row>
+    <row r="6" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A6" s="96" t="n"/>
+      <c r="B6" s="97" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District,</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="31.95" customFormat="1" customHeight="1" s="89">
-      <c r="B7" s="89" t="inlineStr">
+      <c r="C6" s="97" t="n"/>
+      <c r="D6" s="97" t="n"/>
+      <c r="E6" s="97" t="n"/>
+      <c r="F6" s="97" t="n"/>
+      <c r="G6" s="97" t="n"/>
+      <c r="XEW6" s="88" t="n"/>
+    </row>
+    <row r="7" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A7" s="96" t="n"/>
+      <c r="B7" s="97" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="31.95" customFormat="1" customHeight="1" s="90">
-      <c r="A8" s="106" t="inlineStr">
+      <c r="C7" s="97" t="n"/>
+      <c r="D7" s="97" t="n"/>
+      <c r="E7" s="97" t="n"/>
+      <c r="F7" s="97" t="n"/>
+      <c r="G7" s="97" t="n"/>
+      <c r="XEW7" s="88" t="n"/>
+    </row>
+    <row r="8" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A8" s="98" t="inlineStr">
         <is>
           <t>TEL:</t>
         </is>
       </c>
-      <c r="B8" s="131" t="inlineStr">
+      <c r="B8" s="123" t="inlineStr">
         <is>
           <t>+855  975910636</t>
         </is>
       </c>
-      <c r="C8" s="107" t="n"/>
-      <c r="D8" s="107" t="n"/>
-      <c r="E8" s="107" t="n"/>
-      <c r="F8" s="107" t="n"/>
-      <c r="G8" s="107" t="n"/>
-    </row>
-    <row r="9" ht="31.95" customFormat="1" customHeight="1" s="89">
-      <c r="A9" s="24" t="inlineStr">
+      <c r="C8" s="100" t="n"/>
+      <c r="D8" s="100" t="n"/>
+      <c r="E8" s="100" t="n"/>
+      <c r="F8" s="100" t="n"/>
+      <c r="G8" s="100" t="n"/>
+      <c r="XEW8" s="88" t="n"/>
+    </row>
+    <row r="9" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A9" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">The Buyer:  </t>
         </is>
       </c>
-      <c r="B9" s="89" t="inlineStr">
-        <is>
-          <t>MOTOMOTION VIETNAM CO.,LTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="45" customFormat="1" customHeight="1" s="89">
-      <c r="A10" s="106" t="n"/>
-      <c r="B10" s="108" t="inlineStr">
-        <is>
-          <t>Factory C-1B-D1 to C-1B-D4A and C-1B-B3-A,B, C-1B-B4-A,B, Lot C-1B-CN, DE4 Street , My Phuoc 3 Industrial Park, Thoi Hoa Ward,Ho Chi Minh City, Vietnam</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customFormat="1" customHeight="1" s="89">
-      <c r="B11" s="106" t="inlineStr">
-        <is>
-          <t>Contact Person : ZHENG YAN YUN  Tel:  0274 3803833</t>
-        </is>
-      </c>
-      <c r="C11" s="106" t="n"/>
-      <c r="D11" s="106" t="n"/>
-      <c r="E11" s="106" t="n"/>
-      <c r="F11" s="106" t="n"/>
-      <c r="G11" s="106" t="n"/>
-    </row>
-    <row r="12" ht="24" customFormat="1" customHeight="1" s="134">
-      <c r="A12" s="135" t="inlineStr">
+      <c r="B9" s="97" t="inlineStr">
+        <is>
+          <t>MOTO INNOVATION VIETNAM LIMITED COMPANY</t>
+        </is>
+      </c>
+      <c r="C9" s="97" t="n"/>
+      <c r="D9" s="97" t="n"/>
+      <c r="E9" s="97" t="n"/>
+      <c r="F9" s="97" t="n"/>
+      <c r="G9" s="97" t="n"/>
+      <c r="XEW9" s="88" t="n"/>
+    </row>
+    <row r="10" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A10" s="98" t="n"/>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Factory C-1B-B1-B and C-1B-B2, Lot C-1B-CN, DE4 Street, My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City, Vietnam</t>
+        </is>
+      </c>
+      <c r="XEW10" s="88" t="n"/>
+    </row>
+    <row r="11" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A11" s="97" t="n"/>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Contact Person : XU MEIJUN  Tel:  0274 3803833</t>
+        </is>
+      </c>
+      <c r="C11" s="99" t="n"/>
+      <c r="D11" s="99" t="n"/>
+      <c r="E11" s="99" t="n"/>
+      <c r="F11" s="99" t="n"/>
+      <c r="G11" s="99" t="n"/>
+      <c r="XEW11" s="88" t="n"/>
+    </row>
+    <row r="12" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A12" s="126" t="inlineStr">
         <is>
           <t>After discussion, the both parties agree to sell and purchase the commodities on the following terms and conditions:</t>
         </is>
       </c>
-      <c r="B12" s="135" t="n"/>
-      <c r="E12" s="136" t="n"/>
-      <c r="F12" s="136" t="n"/>
-      <c r="G12" s="136" t="n"/>
-      <c r="H12" s="136" t="n"/>
-      <c r="K12" s="136" t="n"/>
-      <c r="L12" s="136" t="n"/>
-      <c r="M12" s="137" t="n"/>
-      <c r="N12" s="137" t="n"/>
-    </row>
-    <row r="13" ht="26.1" customFormat="1" customHeight="1" s="134">
-      <c r="A13" s="138" t="inlineStr">
+      <c r="B12" s="126" t="n"/>
+      <c r="C12" s="127" t="n"/>
+      <c r="D12" s="127" t="n"/>
+      <c r="E12" s="128" t="n"/>
+      <c r="F12" s="128" t="n"/>
+      <c r="G12" s="128" t="n"/>
+      <c r="XEW12" s="88" t="n"/>
+    </row>
+    <row r="13" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A13" s="129" t="inlineStr">
         <is>
           <t>1.NAME OF COMMODITY AND SPECIFICATION:</t>
         </is>
       </c>
-      <c r="B13" s="138" t="n"/>
-      <c r="E13" s="136" t="n"/>
-      <c r="F13" s="136" t="n"/>
-      <c r="G13" s="136" t="n"/>
-      <c r="H13" s="136" t="n"/>
-      <c r="I13" s="136" t="n"/>
-      <c r="J13" s="136" t="n"/>
-      <c r="K13" s="136" t="n"/>
-      <c r="L13" s="136" t="n"/>
-      <c r="M13" s="137" t="n"/>
-      <c r="N13" s="137" t="n"/>
-    </row>
-    <row r="14" ht="24.9" customFormat="1" customHeight="1" s="134">
-      <c r="A14" s="135" t="inlineStr">
+      <c r="B13" s="129" t="n"/>
+      <c r="C13" s="127" t="n"/>
+      <c r="D13" s="127" t="n"/>
+      <c r="E13" s="128" t="n"/>
+      <c r="F13" s="128" t="n"/>
+      <c r="G13" s="128" t="n"/>
+      <c r="XEW13" s="88" t="n"/>
+    </row>
+    <row r="14" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A14" s="126" t="inlineStr">
         <is>
           <t>The seller guaranteed the correct color delivery, Commodity, Dimension and quantity as follow:</t>
         </is>
       </c>
-      <c r="B14" s="135" t="n"/>
-      <c r="E14" s="136" t="n"/>
-      <c r="F14" s="136" t="n"/>
-      <c r="G14" s="136" t="n"/>
-      <c r="H14" s="136" t="n"/>
-      <c r="I14" s="136" t="n"/>
-      <c r="J14" s="136" t="n"/>
-      <c r="K14" s="136" t="n"/>
-      <c r="L14" s="136" t="n"/>
-      <c r="M14" s="137" t="n"/>
-      <c r="N14" s="137" t="n"/>
-    </row>
-    <row r="15" ht="49.2" customFormat="1" customHeight="1" s="139"/>
-    <row r="16" ht="37" customFormat="1" customHeight="1" s="139"/>
-    <row r="17" ht="36" customFormat="1" customHeight="1" s="93">
-      <c r="A17" s="122" t="inlineStr">
+      <c r="B14" s="126" t="n"/>
+      <c r="C14" s="127" t="n"/>
+      <c r="D14" s="127" t="n"/>
+      <c r="E14" s="128" t="n"/>
+      <c r="F14" s="128" t="n"/>
+      <c r="G14" s="128" t="n"/>
+      <c r="XEW14" s="88" t="n"/>
+    </row>
+    <row r="15" ht="45.6" customFormat="1" customHeight="1" s="130"/>
+    <row r="16" ht="30" customFormat="1" customHeight="1" s="124"/>
+    <row r="17" ht="30" customFormat="1" customHeight="1" s="124">
+      <c r="A17" s="131" t="n"/>
+      <c r="B17" s="131" t="n"/>
+      <c r="C17" s="132" t="n"/>
+      <c r="D17" s="132" t="n"/>
+      <c r="E17" s="133" t="n"/>
+      <c r="F17" s="133" t="n"/>
+      <c r="G17" s="133" t="n"/>
+      <c r="XEW17" s="88" t="n"/>
+    </row>
+    <row r="18" ht="30" customFormat="1" customHeight="1" s="124">
+      <c r="A18" s="115" t="inlineStr">
         <is>
           <t>DAP:</t>
         </is>
       </c>
-      <c r="B17" s="123" t="inlineStr">
+      <c r="B18" s="116" t="inlineStr">
         <is>
           <t>HCM</t>
         </is>
       </c>
-      <c r="D17" s="123" t="n"/>
-      <c r="E17" s="124" t="n"/>
-      <c r="F17" s="124" t="n"/>
-      <c r="G17" s="124" t="n"/>
-    </row>
-    <row r="18" ht="36" customFormat="1" customHeight="1" s="93">
-      <c r="A18" s="124" t="inlineStr">
+      <c r="C18" s="117" t="n"/>
+      <c r="D18" s="116" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="118" t="n"/>
+      <c r="XEW18" s="88" t="n"/>
+    </row>
+    <row r="19" ht="30" customFormat="1" customHeight="1" s="124">
+      <c r="A19" s="118" t="inlineStr">
         <is>
           <t>Term of Payment: 100% TT after shipment</t>
         </is>
       </c>
-      <c r="B18" s="124" t="n"/>
-      <c r="C18" s="124" t="n"/>
-      <c r="D18" s="124" t="n"/>
-      <c r="E18" s="124" t="n"/>
-      <c r="F18" s="124" t="n"/>
-      <c r="G18" s="124" t="n"/>
-    </row>
-    <row r="19" ht="36" customFormat="1" customHeight="1" s="93">
-      <c r="A19" s="124" t="inlineStr">
+      <c r="B19" s="118" t="n"/>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="118" t="n"/>
+      <c r="XEW19" s="88" t="n"/>
+    </row>
+    <row r="20" ht="36" customFormat="1" customHeight="1" s="124">
+      <c r="A20" s="118" t="inlineStr">
         <is>
           <t>Transaction method: DAP(USD)</t>
         </is>
       </c>
-      <c r="B19" s="124" t="n"/>
-      <c r="C19" s="124" t="n"/>
-      <c r="D19" s="124" t="n"/>
-      <c r="E19" s="124" t="n"/>
-      <c r="F19" s="124" t="n"/>
-      <c r="G19" s="124" t="n"/>
-    </row>
-    <row r="20" ht="36" customFormat="1" customHeight="1" s="93">
-      <c r="A20" s="124" t="inlineStr">
+      <c r="B20" s="118" t="n"/>
+      <c r="C20" s="118" t="n"/>
+      <c r="D20" s="118" t="n"/>
+      <c r="E20" s="118" t="n"/>
+      <c r="F20" s="118" t="n"/>
+      <c r="G20" s="118" t="n"/>
+      <c r="XEW20" s="88" t="n"/>
+    </row>
+    <row r="21" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A21" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary bank information: </t>
         </is>
       </c>
-      <c r="B20" s="124" t="n"/>
-      <c r="C20" s="124" t="n"/>
-      <c r="D20" s="124" t="n"/>
-      <c r="E20" s="124" t="inlineStr">
+      <c r="B21" s="118" t="n"/>
+      <c r="C21" s="118" t="n"/>
+      <c r="D21" s="118" t="n"/>
+      <c r="E21" s="118" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="F20" s="124" t="n"/>
-      <c r="G20" s="124" t="n"/>
-    </row>
-    <row r="21" ht="62.1" customFormat="1" customHeight="1" s="93">
-      <c r="A21" s="124" t="inlineStr">
+      <c r="F21" s="118" t="n"/>
+      <c r="G21" s="118" t="n"/>
+      <c r="XEW21" s="88" t="n"/>
+    </row>
+    <row r="22" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A22" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Beneficiary Bank' s Name: </t>
         </is>
       </c>
-      <c r="B21" s="124" t="n"/>
-      <c r="C21" s="124" t="n"/>
-      <c r="D21" s="124" t="n"/>
-      <c r="E21" s="125" t="inlineStr">
+      <c r="B22" s="118" t="n"/>
+      <c r="C22" s="118" t="n"/>
+      <c r="D22" s="118" t="n"/>
+      <c r="E22" s="119" t="inlineStr">
         <is>
           <t>BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="44.1" customFormat="1" customHeight="1" s="88">
-      <c r="A22" s="124" t="inlineStr">
+      <c r="XEW22" s="88" t="n"/>
+    </row>
+    <row r="23" ht="39" customFormat="1" customHeight="1" s="134">
+      <c r="A23" s="118" t="inlineStr">
         <is>
           <t xml:space="preserve">Bank Address:  </t>
         </is>
       </c>
-      <c r="B22" s="124" t="n"/>
-      <c r="C22" s="124" t="n"/>
-      <c r="D22" s="124" t="n"/>
-      <c r="E22" s="125" t="inlineStr">
+      <c r="B23" s="118" t="n"/>
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="119" t="inlineStr">
         <is>
           <t>1st AND 2nd FLOOR,CANADIA TOWER,No.315 ANDDUONG ST.,PHNOM PEMH,CAMBODIA.</t>
         </is>
       </c>
-    </row>
-    <row r="23" ht="28.95" customFormat="1" customHeight="1" s="88">
-      <c r="A23" s="124" t="inlineStr">
+      <c r="XEW23" s="88" t="n"/>
+    </row>
+    <row r="24" ht="39" customFormat="1" customHeight="1" s="134">
+      <c r="A24" s="118" t="inlineStr">
         <is>
           <t>Bank account :</t>
         </is>
       </c>
-      <c r="B23" s="124" t="n"/>
-      <c r="C23" s="124" t="n"/>
-      <c r="D23" s="124" t="n"/>
-      <c r="E23" s="126" t="inlineStr">
+      <c r="B24" s="118" t="n"/>
+      <c r="C24" s="118" t="n"/>
+      <c r="D24" s="118" t="n"/>
+      <c r="E24" s="120" t="inlineStr">
         <is>
           <t>100001100764430</t>
         </is>
       </c>
-    </row>
-    <row r="24" ht="39" customFormat="1" customHeight="1" s="140">
-      <c r="A24" s="124" t="inlineStr">
+      <c r="XEW24" s="88" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="134">
+      <c r="A25" s="118" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：</t>
         </is>
       </c>
-      <c r="B24" s="124" t="n"/>
-      <c r="C24" s="124" t="n"/>
-      <c r="D24" s="124" t="n"/>
-      <c r="E24" s="124" t="inlineStr">
+      <c r="B25" s="118" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="118" t="n"/>
+      <c r="E25" s="118" t="inlineStr">
         <is>
           <t>BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="F24" s="124" t="n"/>
-      <c r="G24" s="124" t="n"/>
-    </row>
-    <row r="25" ht="39" customFormat="1" customHeight="1" s="140">
-      <c r="A25" s="124" t="n"/>
-      <c r="B25" s="124" t="n"/>
-      <c r="C25" s="124" t="n"/>
-      <c r="D25" s="124" t="n"/>
-      <c r="E25" s="124" t="n"/>
-      <c r="F25" s="124" t="n"/>
-      <c r="G25" s="124" t="n"/>
-      <c r="H25" s="124" t="n"/>
-    </row>
-    <row r="26" ht="62.1" customFormat="1" customHeight="1" s="140">
-      <c r="B26" s="127" t="inlineStr">
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="118" t="n"/>
+      <c r="XEW25" s="88" t="n"/>
+    </row>
+    <row r="26" ht="39" customFormat="1" customHeight="1" s="134">
+      <c r="A26" s="118" t="n"/>
+      <c r="B26" s="118" t="n"/>
+      <c r="C26" s="118" t="n"/>
+      <c r="D26" s="118" t="n"/>
+      <c r="E26" s="118" t="n"/>
+      <c r="F26" s="118" t="n"/>
+      <c r="G26" s="118" t="n"/>
+      <c r="XEW26" s="88" t="n"/>
+    </row>
+    <row r="27" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A27" s="91" t="n"/>
+      <c r="B27" s="121" t="inlineStr">
         <is>
           <t>The Buyer:</t>
         </is>
       </c>
-      <c r="F26" s="127" t="inlineStr">
+      <c r="C27" s="91" t="n"/>
+      <c r="D27" s="91" t="n"/>
+      <c r="E27" s="91" t="n"/>
+      <c r="F27" s="121" t="inlineStr">
         <is>
           <t>The Seller:</t>
         </is>
       </c>
-    </row>
-    <row r="27" ht="57" customFormat="1" customHeight="1" s="140">
-      <c r="A27" s="128" t="inlineStr">
-        <is>
-          <t>MOTOMOTION VIETNAM CO.,LTD</t>
-        </is>
-      </c>
-      <c r="D27" s="128" t="n"/>
-      <c r="E27" s="128" t="inlineStr">
+      <c r="G27" s="91" t="n"/>
+      <c r="XEW27" s="88" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customFormat="1" customHeight="1" s="124">
+      <c r="A28" s="122" t="inlineStr">
+        <is>
+          <t>MOTO INNOVATION VIETNAM LIMITED COMPANY</t>
+        </is>
+      </c>
+      <c r="D28" s="122" t="n"/>
+      <c r="E28" s="122" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-    </row>
-    <row r="28" ht="28.95" customFormat="1" customHeight="1" s="140">
-      <c r="A28" s="99" t="n"/>
-      <c r="B28" s="99" t="n"/>
-      <c r="C28" s="99" t="n"/>
-      <c r="D28" s="99" t="n"/>
-      <c r="E28" s="99" t="n"/>
-      <c r="F28" s="99" t="n"/>
-      <c r="G28" s="99" t="n"/>
-      <c r="H28" s="99" t="n"/>
-      <c r="I28" s="99" t="n"/>
-      <c r="J28" s="99" t="n"/>
-      <c r="K28" s="99" t="n"/>
-      <c r="L28" s="99" t="n"/>
-      <c r="M28" s="99" t="n"/>
-      <c r="XFD28" s="99" t="n"/>
-    </row>
-    <row r="29" ht="39" customFormat="1" customHeight="1" s="141">
-      <c r="A29" s="99" t="n"/>
-      <c r="B29" s="99" t="n"/>
-      <c r="C29" s="99" t="n"/>
-      <c r="D29" s="99" t="n"/>
-      <c r="E29" s="99" t="n"/>
-      <c r="F29" s="99" t="n"/>
-      <c r="G29" s="99" t="n"/>
-      <c r="H29" s="99" t="n"/>
-      <c r="I29" s="99" t="n"/>
-      <c r="J29" s="99" t="n"/>
-      <c r="K29" s="99" t="n"/>
-      <c r="L29" s="99" t="n"/>
-      <c r="M29" s="99" t="n"/>
-      <c r="XFD29" s="99" t="n"/>
-    </row>
-    <row r="30" ht="39" customFormat="1" customHeight="1" s="141">
-      <c r="A30" s="128" t="inlineStr">
-        <is>
-          <t>ZHENG YAN YUN</t>
-        </is>
-      </c>
-      <c r="E30" s="128" t="inlineStr">
-        <is>
-          <t>ZENG XUELI</t>
-        </is>
-      </c>
-      <c r="H30" s="99" t="n"/>
-      <c r="I30" s="99" t="n"/>
-      <c r="J30" s="99" t="n"/>
-      <c r="K30" s="99" t="n"/>
-      <c r="L30" s="99" t="n"/>
-      <c r="M30" s="99" t="n"/>
-      <c r="XFD30" s="99" t="n"/>
-    </row>
-    <row r="31" ht="39" customFormat="1" customHeight="1" s="141">
-      <c r="A31" s="99" t="n"/>
-      <c r="B31" s="99" t="n"/>
-      <c r="C31" s="99" t="n"/>
-      <c r="D31" s="99" t="n"/>
-      <c r="E31" s="99" t="n"/>
-      <c r="F31" s="99" t="n"/>
-      <c r="G31" s="99" t="n"/>
-      <c r="H31" s="99" t="n"/>
-      <c r="I31" s="99" t="n"/>
-      <c r="J31" s="99" t="n"/>
-      <c r="K31" s="99" t="n"/>
-      <c r="L31" s="99" t="n"/>
-      <c r="M31" s="99" t="n"/>
-      <c r="N31" s="99" t="n"/>
-      <c r="O31" s="99" t="n"/>
-      <c r="P31" s="99" t="n"/>
-      <c r="Q31" s="99" t="n"/>
-      <c r="R31" s="99" t="n"/>
-      <c r="S31" s="99" t="n"/>
-      <c r="T31" s="99" t="n"/>
-      <c r="U31" s="99" t="n"/>
-      <c r="V31" s="99" t="n"/>
-      <c r="W31" s="99" t="n"/>
-      <c r="X31" s="99" t="n"/>
-      <c r="Y31" s="99" t="n"/>
-      <c r="Z31" s="99" t="n"/>
-      <c r="AA31" s="99" t="n"/>
-      <c r="AB31" s="99" t="n"/>
-      <c r="AC31" s="99" t="n"/>
-      <c r="AD31" s="99" t="n"/>
-      <c r="AE31" s="99" t="n"/>
-      <c r="AF31" s="99" t="n"/>
-      <c r="AG31" s="99" t="n"/>
-      <c r="AH31" s="99" t="n"/>
-      <c r="AI31" s="99" t="n"/>
-      <c r="AJ31" s="99" t="n"/>
-      <c r="AK31" s="99" t="n"/>
-      <c r="AL31" s="99" t="n"/>
-      <c r="AM31" s="99" t="n"/>
-      <c r="AN31" s="99" t="n"/>
-      <c r="AO31" s="99" t="n"/>
-      <c r="AP31" s="99" t="n"/>
-      <c r="AQ31" s="99" t="n"/>
-      <c r="AR31" s="99" t="n"/>
-      <c r="AS31" s="99" t="n"/>
-      <c r="XFD31" s="99" t="n"/>
-    </row>
-    <row r="32" ht="57" customFormat="1" customHeight="1" s="141">
-      <c r="A32" s="99" t="n"/>
-      <c r="B32" s="99" t="n"/>
-      <c r="C32" s="99" t="n"/>
-      <c r="D32" s="99" t="n"/>
-      <c r="E32" s="99" t="n"/>
-      <c r="F32" s="99" t="n"/>
-      <c r="G32" s="99" t="n"/>
-      <c r="H32" s="99" t="n"/>
-      <c r="I32" s="99" t="n"/>
-      <c r="J32" s="99" t="n"/>
-      <c r="K32" s="99" t="n"/>
-      <c r="L32" s="99" t="n"/>
-      <c r="M32" s="99" t="n"/>
-      <c r="N32" s="99" t="n"/>
-      <c r="O32" s="99" t="n"/>
-      <c r="P32" s="99" t="n"/>
-      <c r="Q32" s="99" t="n"/>
-      <c r="R32" s="99" t="n"/>
-      <c r="S32" s="99" t="n"/>
-      <c r="T32" s="99" t="n"/>
-      <c r="U32" s="99" t="n"/>
-      <c r="V32" s="99" t="n"/>
-      <c r="W32" s="99" t="n"/>
-      <c r="X32" s="99" t="n"/>
-      <c r="Y32" s="99" t="n"/>
-      <c r="Z32" s="99" t="n"/>
-      <c r="AA32" s="99" t="n"/>
-      <c r="AB32" s="99" t="n"/>
-      <c r="AC32" s="99" t="n"/>
-      <c r="AD32" s="99" t="n"/>
-      <c r="AE32" s="99" t="n"/>
-      <c r="AF32" s="99" t="n"/>
-      <c r="AG32" s="99" t="n"/>
-      <c r="AH32" s="99" t="n"/>
-      <c r="AI32" s="99" t="n"/>
-      <c r="AJ32" s="99" t="n"/>
-      <c r="AK32" s="99" t="n"/>
-      <c r="AL32" s="99" t="n"/>
-      <c r="AM32" s="99" t="n"/>
-      <c r="AN32" s="99" t="n"/>
-      <c r="AO32" s="99" t="n"/>
-      <c r="AP32" s="99" t="n"/>
-      <c r="AQ32" s="99" t="n"/>
-      <c r="AR32" s="99" t="n"/>
-      <c r="AS32" s="99" t="n"/>
-      <c r="XFD32" s="99" t="n"/>
-    </row>
-    <row r="33" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="34" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="35" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="36" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="37" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="38" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="39" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="40" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="41" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="42" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="43" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="44" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="45" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="46" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="47" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="48" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="49" ht="39" customFormat="1" customHeight="1" s="142"/>
-    <row r="50" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="51" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="52" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="53" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="54" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="55" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="56" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="57" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="58" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="59" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="60" customFormat="1" s="143"/>
-    <row r="61" customFormat="1" s="143"/>
-    <row r="62" customFormat="1" s="143"/>
-    <row r="63" customFormat="1" s="143"/>
-    <row r="64" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="65" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="66" ht="39" customFormat="1" customHeight="1" s="141"/>
-    <row r="67" customFormat="1" s="143"/>
-    <row r="68" customFormat="1" s="143"/>
-    <row r="69" customFormat="1" s="143"/>
-    <row r="70" customFormat="1" s="143"/>
-    <row r="71" customFormat="1" s="143"/>
-    <row r="72" ht="31.5" customFormat="1" customHeight="1" s="144"/>
-    <row r="73" customFormat="1" s="143"/>
+      <c r="XEW28" s="88" t="n"/>
+    </row>
+    <row r="29" ht="39" customFormat="1" customHeight="1" s="124">
+      <c r="A29" s="88" t="n"/>
+      <c r="B29" s="88" t="n"/>
+      <c r="C29" s="88" t="n"/>
+      <c r="D29" s="88" t="n"/>
+      <c r="E29" s="88" t="n"/>
+      <c r="F29" s="88" t="n"/>
+      <c r="G29" s="88" t="n"/>
+      <c r="XEW29" s="88" t="n"/>
+    </row>
+    <row r="30" ht="19.5" customFormat="1" customHeight="1" s="134">
+      <c r="A30" s="88" t="n"/>
+      <c r="B30" s="88" t="n"/>
+      <c r="C30" s="88" t="n"/>
+      <c r="D30" s="88" t="n"/>
+      <c r="E30" s="88" t="n"/>
+      <c r="F30" s="88" t="n"/>
+      <c r="G30" s="88" t="n"/>
+      <c r="XEW30" s="88" t="n"/>
+    </row>
+    <row r="31" ht="39" customFormat="1" customHeight="1" s="134">
+      <c r="A31" s="122" t="inlineStr">
+        <is>
+          <t>XU MEIJUN</t>
+        </is>
+      </c>
+      <c r="D31" s="88" t="n"/>
+      <c r="E31" s="88" t="n"/>
+      <c r="F31" s="88" t="n"/>
+      <c r="G31" s="88" t="n"/>
+      <c r="XEW31" s="88" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customFormat="1" customHeight="1" s="134">
+      <c r="A32" s="88" t="n"/>
+      <c r="B32" s="88" t="n"/>
+      <c r="C32" s="88" t="n"/>
+      <c r="D32" s="88" t="n"/>
+      <c r="E32" s="88" t="n"/>
+      <c r="F32" s="88" t="n"/>
+      <c r="G32" s="88" t="n"/>
+      <c r="XEW32" s="88" t="n"/>
+    </row>
+    <row r="33" customFormat="1" s="134"/>
+    <row r="34" customFormat="1" s="134"/>
+    <row r="35" ht="39" customFormat="1" customHeight="1" s="135"/>
+    <row r="36" customFormat="1" s="134"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
     <row r="74"/>
     <row r="75"/>
     <row r="76"/>
@@ -2473,26 +2632,25 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E30:G30"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E21:G21"/>
     <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="1.0625" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="42"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="40" pageOrder="overThenDown"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2504,388 +2662,380 @@
   </sheetPr>
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.1047619047619" defaultRowHeight="15"/>
   <cols>
-    <col width="28.3333333333333" customWidth="1" style="3" min="1" max="1"/>
-    <col width="27.3333333333333" customWidth="1" style="3" min="2" max="2"/>
-    <col width="25.3333333333333" customWidth="1" style="3" min="3" max="3"/>
-    <col width="18.3333333333333" customWidth="1" style="3" min="4" max="5"/>
-    <col width="18.6666666666667" customWidth="1" style="3" min="6" max="6"/>
-    <col width="21.552380952381" customWidth="1" style="4" min="7" max="7"/>
-    <col width="5" customWidth="1" style="3" min="8" max="8"/>
-    <col width="15.552380952381" customWidth="1" style="3" min="9" max="9"/>
-    <col width="15.8857142857143" customWidth="1" style="3" min="10" max="11"/>
-    <col width="17.1047619047619" customWidth="1" style="3" min="12" max="12"/>
-    <col width="7.1047619047619" customWidth="1" style="3" min="13" max="13"/>
-    <col width="7.1047619047619" customWidth="1" style="3" min="14" max="16384"/>
+    <col width="28.3333333333333" customWidth="1" style="2" min="1" max="1"/>
+    <col width="27.3333333333333" customWidth="1" style="2" min="2" max="2"/>
+    <col width="30.552380952381" customWidth="1" style="2" min="3" max="3"/>
+    <col width="22.1047619047619" customWidth="1" style="2" min="4" max="4"/>
+    <col width="18.3333333333333" customWidth="1" style="2" min="5" max="5"/>
+    <col width="18.6666666666667" customWidth="1" style="2" min="6" max="6"/>
+    <col width="21.552380952381" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.1047619047619" customWidth="1" style="2" min="8" max="8"/>
+    <col width="7.1047619047619" customWidth="1" style="2" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="145">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="38.25" customHeight="1" s="136">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" s="145">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="2" ht="24" customHeight="1" s="136">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District, </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="145">
-      <c r="A3" s="8" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="136">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="145">
-      <c r="A4" s="8" t="inlineStr">
+    <row r="4" ht="17.25" customHeight="1" s="136">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>VAT:L001-901903209</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1" s="145">
-      <c r="A5" s="10" t="inlineStr">
+    <row r="5" ht="25.5" customHeight="1" s="136">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-    </row>
-    <row r="6" ht="69" customHeight="1" s="145">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="69" customHeight="1" s="136">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" s="145">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="12" t="n"/>
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="12" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="136">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="60" t="inlineStr">
         <is>
           <t>Ref No.:</t>
         </is>
       </c>
-      <c r="G7" s="20">
-        <f>'Packing list'!I7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" s="145">
-      <c r="A8" s="69" t="inlineStr">
+      <c r="G7" s="18" t="inlineStr">
+        <is>
+          <t>JFREF</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="136">
+      <c r="A8" s="72" t="inlineStr">
         <is>
           <t>EXPORTER:</t>
         </is>
       </c>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="B8" s="17" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="C8" s="70" t="n"/>
-      <c r="D8" s="70" t="n"/>
-      <c r="E8" s="18" t="n"/>
-      <c r="F8" s="19" t="inlineStr">
+      <c r="C8" s="73" t="n"/>
+      <c r="D8" s="73" t="n"/>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>INVOICE NO :</t>
         </is>
       </c>
-      <c r="G8" s="61">
-        <f>'Packing list'!I8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1" s="145">
-      <c r="A9" s="71" t="n"/>
-      <c r="B9" s="71" t="inlineStr">
+      <c r="G8" s="62" t="inlineStr">
+        <is>
+          <t>JFINV</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" s="136">
+      <c r="A9" s="74" t="n"/>
+      <c r="B9" s="74" t="inlineStr">
         <is>
           <t>XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages,</t>
         </is>
       </c>
-      <c r="C9" s="70" t="n"/>
-      <c r="D9" s="70" t="n"/>
-      <c r="E9" s="71" t="n"/>
-      <c r="F9" s="19" t="inlineStr">
+      <c r="C9" s="73" t="n"/>
+      <c r="D9" s="73" t="n"/>
+      <c r="E9" s="74" t="n"/>
+      <c r="F9" s="61" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="146">
-        <f>'Packing list'!I9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" s="145">
-      <c r="A10" s="71" t="n"/>
-      <c r="B10" s="71" t="inlineStr">
+      <c r="G9" s="137" t="inlineStr">
+        <is>
+          <t>JFTIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" s="136">
+      <c r="A10" s="74" t="n"/>
+      <c r="B10" s="74" t="inlineStr">
         <is>
           <t>Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia</t>
         </is>
       </c>
-      <c r="C10" s="70" t="n"/>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="71" t="n"/>
-      <c r="F10" s="21" t="inlineStr">
-        <is>
-          <t>DAP :</t>
-        </is>
-      </c>
-      <c r="G10" s="26" t="inlineStr">
+      <c r="C10" s="73" t="n"/>
+      <c r="D10" s="73" t="n"/>
+      <c r="E10" s="74" t="n"/>
+      <c r="F10" s="64" t="inlineStr">
+        <is>
+          <t>DAP:</t>
+        </is>
+      </c>
+      <c r="G10" s="22" t="inlineStr">
         <is>
           <t>HCM</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20.25" customHeight="1" s="145">
-      <c r="A11" s="71" t="n"/>
-      <c r="B11" s="71" t="inlineStr">
+    <row r="11" ht="20.25" customHeight="1" s="136">
+      <c r="A11" s="74" t="n"/>
+      <c r="B11" s="74" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="C11" s="70" t="n"/>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="71" t="n"/>
-      <c r="F11" s="14" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="145">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="14" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1" s="145">
-      <c r="B13" s="72" t="n"/>
-      <c r="E13" s="73" t="n"/>
-      <c r="F13" s="73" t="n"/>
-      <c r="G13" s="67" t="n"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1" s="145">
-      <c r="A14" s="69" t="inlineStr">
+      <c r="C11" s="73" t="n"/>
+      <c r="D11" s="73" t="n"/>
+      <c r="E11" s="74" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="136">
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="25.5" customHeight="1" s="136">
+      <c r="B13" s="75" t="n"/>
+      <c r="E13" s="76" t="n"/>
+      <c r="F13" s="76" t="n"/>
+      <c r="G13" s="68" t="n"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1" s="136">
+      <c r="A14" s="19" t="inlineStr">
         <is>
           <t>CONSIGNEE :</t>
         </is>
       </c>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t>MOTOMOTION VIETNAM CO.,LTD</t>
-        </is>
-      </c>
-      <c r="C14" s="74" t="n"/>
-      <c r="D14" s="74" t="n"/>
-      <c r="E14" s="74" t="n"/>
-      <c r="F14" s="74" t="n"/>
-    </row>
-    <row r="15" ht="25.5" customHeight="1" s="145">
-      <c r="A15" s="71" t="n"/>
-      <c r="B15" s="75" t="inlineStr">
-        <is>
-          <t>Factory C-1B-D1 to C-1B-D4A and C-1B-B3-A,B, C-1B-B4-A,B, Lot C-1B-CN, DE4 Street</t>
-        </is>
-      </c>
-      <c r="F15" s="76" t="n"/>
-    </row>
-    <row r="16" ht="25.5" customHeight="1" s="145">
-      <c r="A16" s="71" t="n"/>
-      <c r="B16" s="77" t="inlineStr">
-        <is>
-          <t>My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City , Vietnam</t>
-        </is>
-      </c>
-      <c r="C16" s="74" t="n"/>
-      <c r="D16" s="74" t="n"/>
-      <c r="E16" s="74" t="n"/>
-      <c r="F16" s="74" t="n"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" s="145">
-      <c r="A17" s="78" t="n"/>
-      <c r="B17" s="77" t="inlineStr">
-        <is>
-          <t>TEL: 0274 3803833​​​TAX: 3702766425</t>
-        </is>
-      </c>
-      <c r="C17" s="70" t="n"/>
-      <c r="D17" s="70" t="n"/>
-      <c r="E17" s="70" t="n"/>
-      <c r="F17" s="79" t="n"/>
-    </row>
-    <row r="18" ht="26.1" customHeight="1" s="145">
-      <c r="A18" s="78" t="n"/>
-      <c r="B18" s="77" t="inlineStr">
-        <is>
-          <t>Contact Person: ZHENG YAN YUN</t>
-        </is>
-      </c>
-      <c r="C18" s="70" t="n"/>
-      <c r="D18" s="70" t="n"/>
-      <c r="E18" s="70" t="n"/>
-      <c r="F18" s="79" t="n"/>
-    </row>
-    <row r="19" ht="27.75" customHeight="1" s="145">
-      <c r="A19" s="78" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>MOTO INNOVATION VIETNAM LIMITED COMPANY</t>
+        </is>
+      </c>
+      <c r="C14" s="20" t="n"/>
+      <c r="D14" s="20" t="n"/>
+      <c r="E14" s="20" t="n"/>
+      <c r="F14" s="20" t="n"/>
+    </row>
+    <row r="15" ht="25.5" customHeight="1" s="136">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>Factory C-1B-B1-B and C-1B-B2, Lot C-1B-CN, DE4 Street,</t>
+        </is>
+      </c>
+      <c r="F15" s="77" t="n"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1" s="136">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City, Vietnam</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="n"/>
+      <c r="D16" s="20" t="n"/>
+      <c r="E16" s="20" t="n"/>
+      <c r="F16" s="20" t="n"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" s="136">
+      <c r="A17" s="23" t="n"/>
+      <c r="B17" s="22" t="inlineStr">
+        <is>
+          <t>TEL: 0274 3803833​​​TAX: 3703265936</t>
+        </is>
+      </c>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="24" t="n"/>
+    </row>
+    <row r="18" ht="26.1" customHeight="1" s="136">
+      <c r="A18" s="23" t="n"/>
+      <c r="B18" s="22" t="inlineStr">
+        <is>
+          <t>Contact Person: XU MEIJUN</t>
+        </is>
+      </c>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="24" t="n"/>
+    </row>
+    <row r="19" ht="27.75" customHeight="1" s="136">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">SHIP: </t>
         </is>
       </c>
-      <c r="B19" s="71" t="inlineStr">
-        <is>
-          <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
-        </is>
-      </c>
-      <c r="C19" s="70" t="n"/>
-      <c r="D19" s="70" t="n"/>
-      <c r="E19" s="70" t="n"/>
-      <c r="F19" s="79" t="n"/>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" s="145">
-      <c r="A20" s="29" t="n"/>
-      <c r="B20" s="29" t="n"/>
-    </row>
-    <row r="21" ht="34.95" customHeight="1" s="145"/>
-    <row r="22" ht="34" customHeight="1" s="145"/>
-    <row r="23" ht="34.95" customHeight="1" s="145">
-      <c r="A23" s="45" t="n"/>
-      <c r="B23" s="45" t="n"/>
-      <c r="C23" s="46" t="n"/>
-      <c r="D23" s="46" t="n"/>
-      <c r="E23" s="46" t="n"/>
-      <c r="F23" s="46" t="n"/>
-      <c r="G23" s="67" t="n"/>
-    </row>
-    <row r="24" ht="42" customHeight="1" s="145">
-      <c r="A24" s="47" t="inlineStr">
+      <c r="B19" s="18" t="inlineStr">
+        <is>
+          <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH, VIETNAM.</t>
+        </is>
+      </c>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="24" t="n"/>
+    </row>
+    <row r="20" ht="27.75" customHeight="1" s="136">
+      <c r="A20" s="25" t="n"/>
+      <c r="B20" s="25" t="n"/>
+    </row>
+    <row r="21" ht="34.95" customHeight="1" s="136"/>
+    <row r="22" ht="34.95" customHeight="1" s="136"/>
+    <row r="23" ht="42" customHeight="1" s="136">
+      <c r="A23" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">Country of Original Cambodia </t>
         </is>
       </c>
-      <c r="D24" s="47" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25" ht="61.5" customHeight="1" s="145">
-      <c r="A25" s="48" t="inlineStr">
+      <c r="D23" s="49" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="61.5" customHeight="1" s="136">
+      <c r="A24" s="50" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B25" s="49" t="inlineStr">
+      <c r="B24" s="51" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="D25" s="49" t="n"/>
-      <c r="E25" s="49" t="n"/>
-      <c r="F25" s="14" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
-    <row r="26" ht="44.1" customHeight="1" s="145">
-      <c r="A26" s="50" t="inlineStr">
+      <c r="D24" s="51" t="n"/>
+      <c r="E24" s="51" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="6" t="n"/>
+    </row>
+    <row r="25" ht="44.1" customHeight="1" s="136">
+      <c r="A25" s="52" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                                   /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="D26" s="50" t="n"/>
-      <c r="E26" s="50" t="n"/>
-      <c r="F26" s="50" t="n"/>
-      <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27" ht="24.75" customHeight="1" s="145">
-      <c r="A27" s="51" t="inlineStr">
+      <c r="D25" s="52" t="n"/>
+      <c r="E25" s="52" t="n"/>
+      <c r="F25" s="52" t="n"/>
+      <c r="G25" s="6" t="n"/>
+    </row>
+    <row r="26" ht="24.75" customHeight="1" s="136">
+      <c r="A26" s="53" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="27" customHeight="1" s="145">
-      <c r="A28" s="51" t="inlineStr">
+    <row r="27" ht="27" customHeight="1" s="136">
+      <c r="A27" s="53" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" s="145">
-      <c r="E29" s="71" t="n"/>
-      <c r="F29" s="52" t="inlineStr">
+    <row r="28" ht="42" customHeight="1" s="136">
+      <c r="E28" s="74" t="n"/>
+      <c r="F28" s="69" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="G29" s="7" t="n"/>
-    </row>
-    <row r="30" ht="61.5" customHeight="1" s="145">
-      <c r="E30" s="14" t="n"/>
-      <c r="F30" s="53" t="inlineStr">
+      <c r="G28" s="6" t="n"/>
+    </row>
+    <row r="29" ht="61.5" customHeight="1" s="136">
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="70" t="inlineStr">
         <is>
           <t>Sign &amp; Stamp</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="44.1" customHeight="1" s="145">
-      <c r="E31" s="14" t="n"/>
-      <c r="F31" s="14" t="n"/>
-    </row>
-    <row r="32" ht="24.75" customHeight="1" s="145">
-      <c r="E32" s="14" t="n"/>
-      <c r="F32" s="14" t="n"/>
-    </row>
-    <row r="33" ht="27" customHeight="1" s="145">
-      <c r="E33" s="14" t="n"/>
-      <c r="F33" s="85" t="inlineStr">
+    <row r="30" ht="44.1" customHeight="1" s="136">
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+    </row>
+    <row r="31" ht="24.75" customHeight="1" s="136">
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
+    </row>
+    <row r="32" ht="27" customHeight="1" s="136">
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="83" t="inlineStr">
         <is>
           <t>ZENG XUELI</t>
         </is>
       </c>
-      <c r="G33" s="54" t="n"/>
-    </row>
-    <row r="34" ht="21" customHeight="1" s="145"/>
-    <row r="35" ht="21" customHeight="1" s="145"/>
-    <row r="36" ht="21" customHeight="1" s="145"/>
-    <row r="37" ht="21" customHeight="1" s="145"/>
-    <row r="38" ht="21" customHeight="1" s="145"/>
-    <row r="39" ht="21" customHeight="1" s="145"/>
-    <row r="40" ht="21" customHeight="1" s="145"/>
-    <row r="41" ht="21" customHeight="1" s="145"/>
-    <row r="42" ht="25.5" customHeight="1" s="145"/>
-    <row r="43" ht="21" customHeight="1" s="145"/>
-    <row r="44" ht="21" customHeight="1" s="145"/>
-    <row r="45" ht="21" customHeight="1" s="145"/>
-    <row r="46" ht="21" customHeight="1" s="145"/>
-    <row r="47" ht="21" customHeight="1" s="145"/>
-    <row r="48" ht="17.25" customHeight="1" s="145"/>
+      <c r="G32" s="71" t="n"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" s="136"/>
+    <row r="34" ht="25.5" customHeight="1" s="136"/>
+    <row r="35" ht="21" customHeight="1" s="136"/>
+    <row r="36" ht="21" customHeight="1" s="136"/>
+    <row r="37" ht="21" customHeight="1" s="136"/>
+    <row r="38" ht="21" customHeight="1" s="136"/>
+    <row r="39" ht="21" customHeight="1" s="136"/>
+    <row r="40" ht="17.25" customHeight="1" s="136"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
     <row r="49"/>
     <row r="50"/>
     <row r="51"/>
-    <row r="52"/>
+    <row r="52" s="136"/>
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
@@ -2893,7 +3043,7 @@
     <row r="57"/>
     <row r="58"/>
     <row r="59"/>
-    <row r="60" s="145"/>
+    <row r="60"/>
     <row r="61"/>
     <row r="62"/>
     <row r="63"/>
@@ -3037,30 +3187,34 @@
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="J23:J32">
-    <cfRule type="duplicateValues" priority="3" stopIfTrue="1"/>
-    <cfRule type="uniqueValues" priority="4" stopIfTrue="1"/>
+  <conditionalFormatting sqref="J22:J25">
+    <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
+    <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" scale="53"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" min="0" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3070,484 +3224,442 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.1047619047619" defaultRowHeight="15"/>
   <cols>
-    <col width="19.4952380952381" customWidth="1" style="3" min="1" max="1"/>
-    <col width="25.8857142857143" customWidth="1" style="3" min="2" max="2"/>
-    <col width="23.1047619047619" customWidth="1" style="3" min="3" max="3"/>
-    <col width="15.552380952381" customWidth="1" style="3" min="4" max="4"/>
-    <col width="21.552380952381" customWidth="1" style="3" min="5" max="5"/>
-    <col width="17.6666666666667" customWidth="1" style="3" min="6" max="6"/>
-    <col width="13.6666666666667" customWidth="1" style="3" min="7" max="7"/>
-    <col width="16.3333333333333" customWidth="1" style="3" min="8" max="8"/>
-    <col width="24.1047619047619" customWidth="1" style="4" min="9" max="9"/>
-    <col width="15" customWidth="1" style="5" min="10" max="10"/>
-    <col width="10" customWidth="1" style="3" min="11" max="11"/>
-    <col width="25.1047619047619" customWidth="1" style="3" min="12" max="12"/>
-    <col width="15.552380952381" customWidth="1" style="3" min="13" max="13"/>
-    <col width="10.3333333333333" customWidth="1" style="3" min="14" max="14"/>
-    <col width="7.1047619047619" customWidth="1" style="3" min="15" max="15"/>
-    <col width="12.4380952380952" customWidth="1" style="3" min="16" max="16"/>
-    <col width="7.1047619047619" customWidth="1" style="3" min="17" max="17"/>
-    <col width="7.1047619047619" customWidth="1" style="3" min="18" max="16384"/>
+    <col width="29.1047619047619" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.1047619047619" customWidth="1" style="2" min="2" max="2"/>
+    <col width="25.8857142857143" customWidth="1" style="2" min="3" max="3"/>
+    <col width="23.1047619047619" customWidth="1" style="2" min="4" max="4"/>
+    <col width="32.4380952380952" customWidth="1" style="2" min="5" max="5"/>
+    <col width="21.552380952381" customWidth="1" style="2" min="6" max="6"/>
+    <col width="17.6666666666667" customWidth="1" style="2" min="7" max="7"/>
+    <col width="13.6666666666667" customWidth="1" style="2" min="8" max="8"/>
+    <col width="16.3333333333333" customWidth="1" style="2" min="9" max="9"/>
+    <col width="24.1047619047619" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.8190476190476" customWidth="1" style="4" min="11" max="11"/>
+    <col width="7.1047619047619" customWidth="1" style="2" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="145">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="38.25" customHeight="1" s="136">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="J1" s="55" t="n"/>
-      <c r="K1" s="56" t="n"/>
-    </row>
-    <row r="2" ht="24" customHeight="1" s="145">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="K1" s="54" t="n"/>
+      <c r="L1" s="55" t="n"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" s="136">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> XIN BAVET SEZ, Road No. 316A, Trapeang Bon and  Prey Kokir  Villages, Prey Kokir  Commune, Chantrea District, </t>
         </is>
       </c>
-      <c r="J2" s="57" t="n"/>
-      <c r="K2" s="14" t="n"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" s="145">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="K2" s="56" t="n"/>
+      <c r="L2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" s="136">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Svay Rieng Province, Kingdom of Cambodia.</t>
         </is>
       </c>
-      <c r="J3" s="58" t="n"/>
-      <c r="K3" s="51" t="n"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1" s="145">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="K3" s="57" t="n"/>
+      <c r="L3" s="53" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="136">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>VAT:L001-901903209</t>
         </is>
       </c>
-      <c r="J4" s="58" t="n"/>
-      <c r="K4" s="51" t="n"/>
-    </row>
-    <row r="5" ht="21.9" customHeight="1" s="145">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="K4" s="57" t="n"/>
+      <c r="L4" s="53" t="n"/>
+    </row>
+    <row r="5" ht="21.9" customHeight="1" s="136">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="11" t="n"/>
-      <c r="I5" s="11" t="n"/>
-      <c r="J5" s="58" t="n"/>
-      <c r="K5" s="51" t="n"/>
-    </row>
-    <row r="6" ht="54" customHeight="1" s="145">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="57" t="n"/>
+      <c r="L5" s="53" t="n"/>
+    </row>
+    <row r="6" ht="54" customHeight="1" s="136">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>PACKING LIST</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="59" t="n"/>
-      <c r="K6" s="60" t="n"/>
-    </row>
-    <row r="7" ht="18.9" customHeight="1" s="145">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="12" t="n"/>
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="12" t="n"/>
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="12" t="n"/>
+      <c r="J6" s="12" t="n"/>
+      <c r="K6" s="58" t="n"/>
+      <c r="L6" s="59" t="n"/>
+    </row>
+    <row r="7" ht="18.9" customHeight="1" s="136">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="60" t="inlineStr">
         <is>
           <t>Ref No.:</t>
         </is>
       </c>
-      <c r="I7" s="20" t="inlineStr">
+      <c r="J7" s="18" t="inlineStr">
         <is>
           <t>JFREF</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" s="145">
-      <c r="A8" s="16" t="inlineStr">
+    <row r="8" ht="30" customHeight="1" s="136">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>EXPORTER:</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="18" t="n"/>
-      <c r="H8" s="19" t="inlineStr">
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="17" t="n"/>
+      <c r="I8" s="61" t="inlineStr">
         <is>
           <t>INVOICE NO :</t>
         </is>
       </c>
-      <c r="I8" s="61" t="inlineStr">
+      <c r="J8" s="62" t="inlineStr">
         <is>
           <t>JFINV</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1" s="145">
-      <c r="A9" s="20" t="n"/>
-      <c r="B9" s="20" t="inlineStr">
+    <row r="9" ht="21" customHeight="1" s="136">
+      <c r="A9" s="18" t="n"/>
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, </t>
         </is>
       </c>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="20" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="19" t="inlineStr">
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="G9" s="18" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="61" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="I9" s="146" t="inlineStr">
+      <c r="J9" s="137" t="inlineStr">
         <is>
           <t>JFTIME</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1" s="145">
-      <c r="A10" s="20" t="n"/>
-      <c r="B10" s="20" t="inlineStr">
+    <row r="10" ht="22.5" customHeight="1" s="136">
+      <c r="A10" s="18" t="n"/>
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia </t>
         </is>
       </c>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="20" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="21" t="inlineStr">
-        <is>
-          <t>DAP :</t>
-        </is>
-      </c>
-      <c r="I10" s="26" t="inlineStr">
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="G10" s="18" t="n"/>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="64" t="inlineStr">
+        <is>
+          <t>DAP:</t>
+        </is>
+      </c>
+      <c r="J10" s="22" t="inlineStr">
         <is>
           <t>HCM</t>
         </is>
       </c>
-      <c r="J10" s="63" t="n"/>
-    </row>
-    <row r="11" ht="20.25" customHeight="1" s="145">
-      <c r="A11" s="20" t="n"/>
-      <c r="B11" s="20" t="inlineStr">
+      <c r="K10" s="65" t="n"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1" s="136">
+      <c r="A11" s="18" t="n"/>
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="20" t="n"/>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="57" t="n"/>
-      <c r="K11" s="14" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="145">
-      <c r="A12" s="20" t="n"/>
-      <c r="B12" s="20" t="n"/>
-      <c r="C12" s="20" t="n"/>
-      <c r="D12" s="20" t="n"/>
-      <c r="E12" s="20" t="n"/>
-      <c r="F12" s="20" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="57" t="n"/>
-      <c r="K12" s="14" t="n"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1" s="145">
-      <c r="A13" s="22" t="inlineStr">
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n"/>
+      <c r="G11" s="18" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="56" t="n"/>
+      <c r="L11" s="13" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="136">
+      <c r="A12" s="18" t="n"/>
+      <c r="B12" s="18" t="n"/>
+      <c r="C12" s="18" t="n"/>
+      <c r="D12" s="18" t="n"/>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="18" t="n"/>
+      <c r="G12" s="18" t="n"/>
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="n"/>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="56" t="n"/>
+      <c r="L12" s="13" t="n"/>
+    </row>
+    <row r="13" ht="25.5" customHeight="1" s="136">
+      <c r="A13" s="19" t="inlineStr">
         <is>
           <t>CONSIGNEE :</t>
         </is>
       </c>
-      <c r="B13" s="17" t="inlineStr">
-        <is>
-          <t>MOTOMOTION VIETNAM CO.,LTD</t>
-        </is>
-      </c>
-      <c r="C13" s="23" t="n"/>
-      <c r="D13" s="23" t="n"/>
-      <c r="E13" s="23" t="n"/>
-      <c r="F13" s="23" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="I13" s="3" t="n"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1" s="145">
-      <c r="A14" s="20" t="n"/>
-      <c r="B14" s="24" t="inlineStr">
-        <is>
-          <t>Factory C-1B-D1 to C-1B-D4A and C-1B-B3-A,B, C-1B-B4-A,B, Lot C-1B-CN, DE4 Street</t>
-        </is>
-      </c>
-      <c r="F14" s="25" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="I14" s="3" t="n"/>
-    </row>
-    <row r="15" ht="25.5" customHeight="1" s="145">
-      <c r="A15" s="20" t="n"/>
-      <c r="B15" s="26" t="inlineStr">
-        <is>
-          <t>My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City , Vietnam</t>
-        </is>
-      </c>
-      <c r="C15" s="23" t="n"/>
-      <c r="D15" s="23" t="n"/>
-      <c r="E15" s="23" t="n"/>
-      <c r="F15" s="23" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="I15" s="3" t="n"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" s="145">
-      <c r="A16" s="27" t="n"/>
-      <c r="B16" s="26" t="inlineStr">
-        <is>
-          <t>TEL: 0274 3803833​​​TAX: 3702766425</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="I16" s="3" t="n"/>
-    </row>
-    <row r="17" ht="26.1" customHeight="1" s="145">
-      <c r="A17" s="27" t="n"/>
-      <c r="B17" s="26" t="inlineStr">
-        <is>
-          <t>Contact Person: ZHENG YAN YUN</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="28" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="I17" s="3" t="n"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" s="145">
-      <c r="A18" s="27" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>MOTO INNOVATION VIETNAM LIMITED COMPANY</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="n"/>
+      <c r="D13" s="20" t="n"/>
+      <c r="F13" s="20" t="n"/>
+      <c r="G13" s="21" t="n"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1" s="136">
+      <c r="A14" s="18" t="n"/>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>Factory C-1B-B1-B and C-1B-B2, Lot C-1B-CN, DE4 Street,</t>
+        </is>
+      </c>
+      <c r="G14" s="22" t="n"/>
+      <c r="H14" s="20" t="n"/>
+      <c r="I14" s="20" t="n"/>
+      <c r="J14" s="20" t="n"/>
+    </row>
+    <row r="15" ht="25.5" customHeight="1" s="136">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City, Vietnam</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="n"/>
+      <c r="D15" s="20" t="n"/>
+      <c r="E15" s="20" t="n"/>
+      <c r="G15" s="22" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="16" t="n"/>
+      <c r="J15" s="16" t="n"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" s="136">
+      <c r="A16" s="23" t="n"/>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t>TEL: 0274 3803833​​​TAX: 3703265936</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="22" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="16" t="n"/>
+      <c r="J16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="26.1" customHeight="1" s="136">
+      <c r="A17" s="23" t="n"/>
+      <c r="B17" s="22" t="inlineStr">
+        <is>
+          <t>Contact Person: XU MEIJUN</t>
+        </is>
+      </c>
+      <c r="C17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="24" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="J17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="27.75" customHeight="1" s="136">
+      <c r="A18" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">SHIP: </t>
         </is>
       </c>
-      <c r="B18" s="20" t="inlineStr">
+      <c r="B18" s="18" t="inlineStr">
         <is>
           <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
         </is>
       </c>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="I18" s="3" t="n"/>
-    </row>
-    <row r="19" ht="27.75" customHeight="1" s="145">
-      <c r="A19" s="29" t="n"/>
-      <c r="B19" s="29" t="n"/>
-    </row>
-    <row r="20" ht="27" customFormat="1" customHeight="1" s="1"/>
-    <row r="21" ht="27" customFormat="1" customHeight="1" s="1"/>
-    <row r="22" ht="27" customHeight="1" s="145">
-      <c r="A22" s="42" t="n"/>
-      <c r="B22" s="42" t="n"/>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="42" t="n"/>
-      <c r="E22" s="43" t="n"/>
-      <c r="F22" s="43" t="n"/>
-      <c r="G22" s="43" t="n"/>
-      <c r="H22" s="43" t="n"/>
-      <c r="I22" s="42" t="n"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" s="145">
-      <c r="A23" s="42" t="n"/>
-      <c r="B23" s="42" t="n"/>
-      <c r="C23" s="42" t="n"/>
-      <c r="D23" s="42" t="n"/>
-      <c r="E23" s="44" t="n"/>
-      <c r="F23" s="44" t="n"/>
-      <c r="G23" s="43" t="n"/>
-      <c r="H23" s="43" t="n"/>
-      <c r="I23" s="42" t="n"/>
-    </row>
-    <row r="24" ht="27" customHeight="1" s="145">
-      <c r="A24" s="45" t="n"/>
-      <c r="B24" s="45" t="n"/>
-      <c r="C24" s="46" t="inlineStr">
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="24" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="J18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="27.75" customHeight="1" s="136">
+      <c r="A19" s="25" t="n"/>
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="25" t="n"/>
+    </row>
+    <row r="20" ht="27" customHeight="1" s="136"/>
+    <row r="21" ht="27" customHeight="1" s="136"/>
+    <row r="22" ht="27" customHeight="1" s="136">
+      <c r="A22" s="47" t="n"/>
+      <c r="B22" s="47" t="n"/>
+      <c r="C22" s="47" t="n"/>
+      <c r="D22" s="48" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="D24" s="46" t="n"/>
-      <c r="E24" s="46" t="n"/>
-      <c r="F24" s="46" t="n"/>
-      <c r="G24" s="46" t="n"/>
-      <c r="H24" s="46" t="n"/>
-      <c r="I24" s="67" t="n"/>
-      <c r="L24" s="52" t="n"/>
-    </row>
-    <row r="25" ht="35.1" customHeight="1" s="145">
-      <c r="A25" s="47" t="inlineStr">
+      <c r="E22" s="48" t="n"/>
+      <c r="F22" s="48" t="n"/>
+      <c r="G22" s="48" t="n"/>
+      <c r="H22" s="48" t="n"/>
+      <c r="I22" s="48" t="n"/>
+      <c r="J22" s="68" t="n"/>
+    </row>
+    <row r="23" ht="35.1" customHeight="1" s="136">
+      <c r="A23" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">Country of Original Cambodia </t>
         </is>
       </c>
-      <c r="D25" s="47" t="n"/>
-      <c r="E25" s="47" t="n"/>
-      <c r="F25" s="14" t="n"/>
-      <c r="G25" s="14" t="n"/>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="7" t="n"/>
-      <c r="J25" s="57" t="n"/>
-      <c r="K25" s="14" t="n"/>
-    </row>
-    <row r="26" ht="72" customHeight="1" s="145">
-      <c r="A26" s="48" t="inlineStr">
+      <c r="E23" s="49" t="n"/>
+      <c r="F23" s="49" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="56" t="n"/>
+      <c r="L23" s="13" t="n"/>
+      <c r="M23" s="69" t="n"/>
+    </row>
+    <row r="24" ht="72" customHeight="1" s="136">
+      <c r="A24" s="50" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B26" s="49" t="inlineStr">
+      <c r="B24" s="50" t="n"/>
+      <c r="C24" s="51" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="D26" s="49" t="n"/>
-      <c r="E26" s="49" t="n"/>
-      <c r="F26" s="49" t="n"/>
-      <c r="G26" s="49" t="n"/>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="57" t="n"/>
-      <c r="K26" s="14" t="n"/>
-      <c r="L26" s="52" t="n"/>
-    </row>
-    <row r="27" ht="48" customFormat="1" customHeight="1" s="2">
-      <c r="A27" s="50" t="inlineStr">
+      <c r="E24" s="51" t="n"/>
+      <c r="F24" s="51" t="n"/>
+      <c r="G24" s="51" t="n"/>
+      <c r="H24" s="51" t="n"/>
+      <c r="I24" s="13" t="n"/>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="56" t="n"/>
+      <c r="L24" s="13" t="n"/>
+      <c r="M24" s="69" t="n"/>
+    </row>
+    <row r="25" ht="48" customFormat="1" customHeight="1" s="1">
+      <c r="A25" s="52" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="D27" s="50" t="n"/>
-      <c r="E27" s="50" t="n"/>
-      <c r="F27" s="50" t="n"/>
-      <c r="G27" s="50" t="n"/>
-      <c r="H27" s="50" t="n"/>
-      <c r="I27" s="7" t="n"/>
-      <c r="J27" s="58" t="n"/>
-      <c r="K27" s="51" t="n"/>
-      <c r="L27" s="52" t="n"/>
-    </row>
-    <row r="28" ht="30" customHeight="1" s="145">
-      <c r="A28" s="51" t="inlineStr">
-        <is>
-          <t>A/C NO:100001100764430</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="32.1" customHeight="1" s="145">
-      <c r="A29" s="51" t="inlineStr">
-        <is>
-          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1" s="145">
-      <c r="F30" s="14" t="n"/>
-      <c r="G30" s="14" t="n"/>
-      <c r="H30" s="52" t="inlineStr">
+      <c r="E25" s="52" t="n"/>
+      <c r="F25" s="52" t="n"/>
+      <c r="G25" s="52" t="n"/>
+      <c r="H25" s="52" t="n"/>
+      <c r="I25" s="52" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="57" t="n"/>
+      <c r="L25" s="53" t="n"/>
+      <c r="M25" s="69" t="n"/>
+    </row>
+    <row r="26" ht="27" customHeight="1" s="136">
+      <c r="A26" s="53" t="n"/>
+    </row>
+    <row r="27" ht="27" customHeight="1" s="136">
+      <c r="A27" s="53" t="n"/>
+    </row>
+    <row r="28" ht="27" customHeight="1" s="136">
+      <c r="G28" s="13" t="n"/>
+      <c r="H28" s="13" t="n"/>
+      <c r="I28" s="69" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="I30" s="7" t="n"/>
-    </row>
-    <row r="31" ht="27" customHeight="1" s="145">
-      <c r="F31" s="14" t="n"/>
-      <c r="G31" s="14" t="n"/>
-      <c r="H31" s="53" t="n"/>
-    </row>
-    <row r="32" ht="27" customHeight="1" s="145">
-      <c r="F32" s="14" t="n"/>
-      <c r="G32" s="14" t="n"/>
-      <c r="H32" s="14" t="n"/>
-    </row>
-    <row r="33" ht="27" customHeight="1" s="145">
-      <c r="F33" s="14" t="n"/>
-      <c r="G33" s="14" t="n"/>
-      <c r="H33" s="14" t="n"/>
-    </row>
-    <row r="34" ht="27" customHeight="1" s="145">
-      <c r="F34" s="14" t="n"/>
-      <c r="G34" s="14" t="n"/>
-      <c r="H34" s="54" t="n"/>
-      <c r="I34" s="54" t="n"/>
-      <c r="J34" s="68" t="n"/>
-    </row>
-    <row r="35" ht="27" customHeight="1" s="145">
-      <c r="H35" s="14" t="inlineStr">
-        <is>
-          <t>ZENG XUELI</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1" s="145"/>
-    <row r="37" ht="27" customHeight="1" s="145"/>
-    <row r="38" ht="27" customHeight="1" s="145"/>
-    <row r="39" ht="27" customHeight="1" s="145"/>
-    <row r="40" ht="18.75" customHeight="1" s="145"/>
-    <row r="41" ht="18.75" customHeight="1" s="145"/>
-    <row r="42" ht="16.5" customHeight="1" s="145"/>
-    <row r="43" ht="35.1" customHeight="1" s="145"/>
-    <row r="44" ht="72" customHeight="1" s="145"/>
-    <row r="45" ht="48" customHeight="1" s="145"/>
-    <row r="46" ht="30" customHeight="1" s="145"/>
-    <row r="47" ht="32.1" customHeight="1" s="145"/>
-    <row r="48" ht="15.75" customHeight="1" s="145"/>
-    <row r="49" ht="26" customHeight="1" s="145"/>
-    <row r="50" ht="26" customHeight="1" s="145"/>
-    <row r="51" ht="26" customHeight="1" s="145"/>
-    <row r="52" ht="26" customHeight="1" s="145"/>
+      <c r="J28" s="6" t="n"/>
+    </row>
+    <row r="29" ht="27" customHeight="1" s="136">
+      <c r="G29" s="13" t="n"/>
+      <c r="H29" s="13" t="n"/>
+      <c r="I29" s="70" t="n"/>
+    </row>
+    <row r="30" ht="27" customHeight="1" s="136">
+      <c r="G30" s="13" t="n"/>
+      <c r="H30" s="13" t="n"/>
+      <c r="I30" s="13" t="n"/>
+    </row>
+    <row r="31" ht="27" customHeight="1" s="136"/>
+    <row r="32" ht="27" customHeight="1" s="136"/>
+    <row r="33" ht="27" customHeight="1" s="136"/>
+    <row r="34" ht="27" customHeight="1" s="136"/>
+    <row r="35" ht="27" customHeight="1" s="136"/>
+    <row r="36" ht="21" customHeight="1" s="136"/>
+    <row r="37" ht="35.1" customHeight="1" s="136"/>
+    <row r="38" ht="72" customHeight="1" s="136"/>
+    <row r="39" ht="48" customHeight="1" s="136"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42" ht="15.75" customHeight="1" s="136"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49" s="136"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
     <row r="53"/>
     <row r="54"/>
     <row r="55"/>
@@ -3683,7 +3795,7 @@
     <row r="185"/>
     <row r="186"/>
     <row r="187"/>
-    <row r="188" ht="42" customHeight="1" s="145"/>
+    <row r="188" ht="30" customHeight="1" s="136"/>
     <row r="189"/>
     <row r="190"/>
     <row r="191"/>
@@ -3695,30 +3807,27 @@
     <row r="197"/>
     <row r="198"/>
     <row r="199"/>
-    <row r="200" ht="42" customHeight="1" s="145"/>
+    <row r="200" ht="30" customHeight="1" s="136"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B26:C26"/>
+  <mergeCells count="16">
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A188:L188"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A200:L200"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N23:N35">
+  <conditionalFormatting sqref="O21:O26">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
